--- a/public/template/template1.xlsx
+++ b/public/template/template1.xlsx
@@ -16,24 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邓子明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,18 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>省份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,46 +51,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市建委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级建造师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土木工程学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程造价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18899649@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +73,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,29 +92,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -485,99 +407,39 @@
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>13936987456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43269</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
